--- a/Dec-July-2019-analysis/output/statistics/Results_summary.xlsx
+++ b/Dec-July-2019-analysis/output/statistics/Results_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/HI_Bleaching_Timeseries/Dec-July-2019-analysis/output/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3262D5-0193-7140-B88D-44EE94269777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E9320-154F-344A-8126-C6A6649EB53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="700" windowWidth="27240" windowHeight="19560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3038,7 +3038,7 @@
   <dimension ref="B1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Dec-July-2019-analysis/output/statistics/Results_summary.xlsx
+++ b/Dec-July-2019-analysis/output/statistics/Results_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11009"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/HI_Bleaching_Timeseries/Dec-July-2019-analysis/output/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C59C9F6-6338-8847-88BC-0829D61BA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE136B4C-82CC-9741-8F36-5912876A3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3080" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physiology" sheetId="20" r:id="rId1"/>
@@ -467,7 +467,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,25 +553,9 @@
     <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -619,18 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -645,12 +617,23 @@
     <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1045,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED3900D-0274-AF44-ABCA-72E49F338EC7}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1063,14 +1046,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
@@ -1090,19 +1073,19 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="43">
         <v>17.116099999999999</v>
       </c>
-      <c r="E5" s="49">
-        <v>1</v>
-      </c>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="43">
+        <v>1</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="10"/>
@@ -1142,28 +1125,28 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="57">
         <v>18.828800000000001</v>
       </c>
-      <c r="E8" s="67">
-        <v>1</v>
-      </c>
-      <c r="F8" s="68" t="s">
+      <c r="E8" s="57">
+        <v>1</v>
+      </c>
+      <c r="F8" s="58" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="29">
@@ -1178,8 +1161,8 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="29">
@@ -1194,7 +1177,7 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="32" t="s">
@@ -1212,35 +1195,35 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="43">
         <v>7.6006</v>
       </c>
-      <c r="E12" s="72">
-        <v>1</v>
-      </c>
-      <c r="F12" s="73">
+      <c r="E12" s="43">
+        <v>1</v>
+      </c>
+      <c r="F12" s="60">
         <v>5.8349999999999999E-3</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="29">
         <v>1.5189999999999999</v>
       </c>
-      <c r="E13" s="37">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
         <v>0.217774</v>
       </c>
       <c r="G13" s="10"/>
@@ -1520,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FF8875-836F-5542-A93E-7F77BBB5F49C}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,42 +1522,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -1582,22 +1565,22 @@
     </row>
     <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
-      <c r="B4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="28"/>
@@ -1613,17 +1596,17 @@
       <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="45">
-        <v>0.1148</v>
-      </c>
-      <c r="E5" s="46">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="G5" s="47">
-        <v>0.76400000000000001</v>
+      <c r="D5" s="39">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="E5" s="40">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.88500000000000001</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="30"/>
@@ -1632,22 +1615,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="49">
-        <v>1</v>
-      </c>
-      <c r="D6" s="50">
-        <v>3.6680999999999999</v>
-      </c>
-      <c r="E6" s="51">
-        <v>0.23957000000000001</v>
-      </c>
-      <c r="F6" s="50">
-        <v>11.5702</v>
-      </c>
-      <c r="G6" s="52">
+      <c r="C6" s="43">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>4.7866999999999997</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.21976000000000001</v>
+      </c>
+      <c r="F6" s="44">
+        <v>10.0572</v>
+      </c>
+      <c r="G6" s="46">
         <v>1E-3</v>
       </c>
       <c r="H6" s="28"/>
@@ -1663,17 +1646,17 @@
       <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="45">
-        <v>0.11550000000000001</v>
-      </c>
-      <c r="E7" s="46">
-        <v>7.5399999999999998E-3</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="G7" s="47">
-        <v>0.75800000000000001</v>
+      <c r="D7" s="39">
+        <v>0.2414</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1.108E-2</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.625</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="30"/>
@@ -1682,20 +1665,20 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="29">
-        <v>36</v>
-      </c>
-      <c r="D8" s="45">
-        <v>11.413</v>
-      </c>
-      <c r="E8" s="46">
-        <v>0.74539</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="39">
+        <v>16.658000000000001</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0.76476999999999995</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="28"/>
       <c r="I8" s="30"/>
       <c r="J8" s="29"/>
@@ -1703,20 +1686,20 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="29">
-        <v>39</v>
-      </c>
-      <c r="D9" s="45">
-        <v>15.311400000000001</v>
-      </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="D9" s="39">
+        <v>21.781700000000001</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -1726,10 +1709,10 @@
       <c r="A10" s="28"/>
       <c r="B10" s="31"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -1739,10 +1722,10 @@
       <c r="A11" s="28"/>
       <c r="B11" s="31"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -1750,14 +1733,14 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -1765,27 +1748,27 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
-      <c r="B13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1796,39 +1779,39 @@
       <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="45">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="E14" s="46">
-        <v>2.887E-2</v>
-      </c>
-      <c r="F14" s="45">
-        <v>0.53520000000000001</v>
-      </c>
-      <c r="G14" s="47">
-        <v>0.64100000000000001</v>
+      <c r="D14" s="39">
+        <v>0.2722</v>
+      </c>
+      <c r="E14" s="40">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.4199</v>
+      </c>
+      <c r="G14" s="41">
+        <v>0.70199999999999996</v>
       </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="29">
         <v>18</v>
       </c>
-      <c r="D15" s="45">
-        <v>7.3567</v>
-      </c>
-      <c r="E15" s="46">
-        <v>0.97113000000000005</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
+      <c r="D15" s="39">
+        <v>11.6684</v>
+      </c>
+      <c r="E15" s="40">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -1836,20 +1819,20 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="29">
         <v>19</v>
       </c>
-      <c r="D16" s="45">
-        <v>7.5754999999999999</v>
-      </c>
-      <c r="E16" s="46">
-        <v>1</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="47"/>
+      <c r="D16" s="39">
+        <v>11.9406</v>
+      </c>
+      <c r="E16" s="40">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -1859,10 +1842,10 @@
       <c r="A17" s="28"/>
       <c r="B17" s="31"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -1870,7 +1853,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -1882,36 +1865,36 @@
     </row>
     <row r="19" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
-      <c r="B20" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="28"/>
@@ -1926,17 +1909,17 @@
       <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="45">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="E21" s="46">
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="F21" s="45">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="G21" s="47">
-        <v>0.97799999999999998</v>
+      <c r="D21" s="39">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="E21" s="40">
+        <v>6.62E-3</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0.1134</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0.91</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -1944,40 +1927,40 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29">
-        <v>18</v>
-      </c>
-      <c r="D22" s="45">
-        <v>4.0563000000000002</v>
-      </c>
-      <c r="E22" s="46">
-        <v>0.99716000000000005</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="39">
+        <v>4.9896000000000003</v>
+      </c>
+      <c r="E22" s="40">
+        <v>0.99338000000000004</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="29">
-        <v>19</v>
-      </c>
-      <c r="D23" s="45">
-        <v>4.0678000000000001</v>
-      </c>
-      <c r="E23" s="46">
-        <v>1</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="39">
+        <v>5.0228999999999999</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -1986,10 +1969,10 @@
       <c r="A24" s="28"/>
       <c r="B24" s="31"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -1998,46 +1981,46 @@
       <c r="A25" s="28"/>
       <c r="B25" s="31"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
-      <c r="B27" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="28"/>
@@ -2046,22 +2029,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="49">
-        <v>1</v>
-      </c>
-      <c r="D28" s="50">
-        <v>2.4935999999999998</v>
-      </c>
-      <c r="E28" s="51">
-        <v>0.32023000000000001</v>
-      </c>
-      <c r="F28" s="50">
-        <v>8.4795999999999996</v>
-      </c>
-      <c r="G28" s="52">
+      <c r="C28" s="43">
+        <v>1</v>
+      </c>
+      <c r="D28" s="44">
+        <v>3.4796</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0.31322</v>
+      </c>
+      <c r="F28" s="44">
+        <v>7.7530000000000001</v>
+      </c>
+      <c r="G28" s="46">
         <v>2E-3</v>
       </c>
       <c r="H28" s="28"/>
@@ -2070,40 +2053,40 @@
     </row>
     <row r="29" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="29">
-        <v>18</v>
-      </c>
-      <c r="D29" s="45">
-        <v>5.2933000000000003</v>
-      </c>
-      <c r="E29" s="46">
-        <v>0.67976999999999999</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="39">
+        <v>7.6296999999999997</v>
+      </c>
+      <c r="E29" s="40">
+        <v>0.68677999999999995</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="29">
-        <v>19</v>
-      </c>
-      <c r="D30" s="45">
-        <v>7.7869000000000002</v>
-      </c>
-      <c r="E30" s="46">
-        <v>1</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="D30" s="39">
+        <v>11.109299999999999</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -2112,10 +2095,10 @@
       <c r="A31" s="28"/>
       <c r="B31" s="31"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
@@ -2124,46 +2107,46 @@
       <c r="A32" s="28"/>
       <c r="B32" s="31"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
-      <c r="B34" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="44" t="s">
+      <c r="B34" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="38" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="28"/>
@@ -2172,23 +2155,23 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="49">
-        <v>1</v>
-      </c>
-      <c r="D35" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="E35" s="51">
-        <v>0.17408999999999999</v>
-      </c>
-      <c r="F35" s="50">
-        <v>3.7942</v>
-      </c>
-      <c r="G35" s="52">
-        <v>3.3000000000000002E-2</v>
+      <c r="C35" s="43">
+        <v>1</v>
+      </c>
+      <c r="D35" s="44">
+        <v>1.5485</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.1464</v>
+      </c>
+      <c r="F35" s="44">
+        <v>3.0872000000000002</v>
+      </c>
+      <c r="G35" s="46">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -2196,47 +2179,47 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="29">
         <v>18</v>
       </c>
-      <c r="D36" s="45">
-        <v>6.1196999999999999</v>
-      </c>
-      <c r="E36" s="46">
-        <v>0.82591000000000003</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="47"/>
+      <c r="D36" s="39">
+        <v>9.0282999999999998</v>
+      </c>
+      <c r="E36" s="40">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="29">
         <v>19</v>
       </c>
-      <c r="D37" s="45">
-        <v>7.4097</v>
-      </c>
-      <c r="E37" s="46">
-        <v>1</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="47"/>
+      <c r="D37" s="39">
+        <v>10.5768</v>
+      </c>
+      <c r="E37" s="40">
+        <v>1</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
-      <c r="B38" s="58"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
@@ -2248,7 +2231,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -2260,36 +2243,36 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
